--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 14.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 14.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -543,7 +543,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,7 +589,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,7 +612,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -658,7 +658,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -681,7 +681,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -727,7 +727,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -773,7 +773,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -819,7 +819,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -842,7 +842,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -888,7 +888,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -934,7 +934,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1003,7 +1003,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1026,7 +1026,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1049,7 +1049,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1234,7 +1234,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1257,7 +1257,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1350,7 +1350,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1396,7 +1396,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1419,7 +1419,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1465,7 +1465,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1557,7 +1557,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1580,7 +1580,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1603,7 +1603,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1649,7 +1649,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1695,7 +1695,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1718,7 +1718,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1764,7 +1764,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1787,7 +1787,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1856,7 +1856,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1879,7 +1879,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Student </t>
+          <t>S</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Student </t>
+          <t>S</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2040,7 +2040,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Student </t>
+          <t>S</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2109,7 +2109,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2270,7 +2270,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2339,7 +2339,7 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2362,7 +2362,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
